--- a/template/prepare.xlsx
+++ b/template/prepare.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="29">
   <si>
     <t>NIK</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>WH</t>
+  </si>
+  <si>
+    <t>WH PARADISE</t>
   </si>
   <si>
     <t>NDE</t>
@@ -53,76 +56,64 @@
     <t>USER REQUEST</t>
   </si>
   <si>
-    <t>CKA</t>
+    <t>SKJ</t>
   </si>
   <si>
-    <t>WH-230601-172249-929452000, 24X12</t>
+    <t>WH-230601-172250-035607000</t>
   </si>
   <si>
-    <t>C.Tel.16/TK 000/JTAK-6140000/2025</t>
+    <t>CBI</t>
   </si>
   <si>
-    <t>Sigit Subiantoro</t>
+    <t>WH-230601-172250-002976000</t>
   </si>
   <si>
-    <t>17-07-2025</t>
+    <t>BOO</t>
   </si>
   <si>
-    <t>CREATE</t>
+    <t>WH-230601-172249-976687000</t>
   </si>
   <si>
-    <t>WH-230601-172249-929452000</t>
+    <t>CLS</t>
   </si>
   <si>
-    <t>CPA</t>
+    <t>WH-230601-172250-938796000</t>
   </si>
   <si>
-    <t>WH-230601-172249-959766000</t>
+    <t>DMG</t>
   </si>
   <si>
-    <t>DUPLIKASI SCMT</t>
+    <t>WH-230601-172251-044738000</t>
   </si>
   <si>
-    <t>WH-230601-172249-959766000, 24X03</t>
+    <t>SPL</t>
   </si>
   <si>
-    <t>PINDAH GUDANG</t>
+    <t>WH-230601-172250-006942000</t>
   </si>
   <si>
-    <t>C.Tel.191/UM 000/JTAK-6080000/2025</t>
+    <t>GPI</t>
   </si>
   <si>
-    <t>Aulia Rahmat Kris Fadlin Siregar</t>
+    <t>WH-230601-172250-006008000</t>
   </si>
   <si>
-    <t>18-07-2025</t>
+    <t>DEP</t>
   </si>
   <si>
-    <t>LGK</t>
+    <t>WH-230601-172250-005151000</t>
   </si>
   <si>
-    <t>WH-230601-172249-960894000</t>
+    <t> 20950904</t>
   </si>
   <si>
-    <t>24X05</t>
+    <t>KHL</t>
   </si>
   <si>
-    <t>WH-230601-172249-960894000, 24X05</t>
+    <t>WH-230601-172251-125246000</t>
   </si>
   <si>
-    <t>SEG</t>
-  </si>
-  <si>
-    <t>24X18</t>
-  </si>
-  <si>
-    <t>DUPLIKASI PARADISE</t>
-  </si>
-  <si>
-    <t>WH-230601-172249-940598000, 24X18</t>
-  </si>
-  <si>
-    <t>WH-230601-172249-940598000</t>
+    <t>20950904</t>
   </si>
 </sst>
 </file>
@@ -135,9 +126,16 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -170,6 +168,13 @@
       <color rgb="FF212529"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -321,8 +326,15 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +343,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -516,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -537,6 +555,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -638,7 +669,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,160 +688,185 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -861,6 +917,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
     <cellStyle name="Normal 2" xfId="49"/>
+    <cellStyle name="Normal 5" xfId="50"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -1353,18 +1410,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.7777777777778" customWidth="1"/>
+    <col min="3" max="4" width="28.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1389,525 +1447,1613 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="15.6" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="18" spans="1:9">
       <c r="A2" s="1">
-        <v>16041125</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>18930509</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
-        <v>710520</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" ht="18" spans="1:9">
+      <c r="A3" s="1">
+        <v>18860056</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:8">
-      <c r="A3" s="1">
-        <v>16995220</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" ht="18" spans="1:9">
+      <c r="A4" s="1">
+        <v>20970209</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" ht="18" spans="1:9">
+      <c r="A5" s="1">
+        <v>20970934</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" ht="18" spans="1:9">
+      <c r="A6" s="1">
+        <v>20900392</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" ht="18" spans="1:9">
+      <c r="A7" s="1">
+        <v>20971319</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" ht="18" spans="1:9">
+      <c r="A8" s="1">
+        <v>19960123</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
-        <v>710520</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" ht="18" spans="1:9">
+      <c r="A9" s="1">
+        <v>18760039</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" ht="18" spans="1:9">
+      <c r="A10" s="1">
+        <v>20960799</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" ht="18" spans="1:9">
+      <c r="A11" s="1">
+        <v>20910038</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" ht="18" spans="1:9">
+      <c r="A12" s="1">
+        <v>18900211</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" ht="18" spans="1:9">
+      <c r="A13" s="1">
+        <v>18990155</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" ht="18" spans="1:9">
+      <c r="A14" s="1">
+        <v>20900268</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" ht="18" spans="1:9">
+      <c r="A15" s="1">
+        <v>18760035</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" ht="18" spans="1:9">
+      <c r="A16" s="1">
+        <v>20950904</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" ht="18" spans="1:9">
+      <c r="A17" s="1">
+        <v>18970259</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" ht="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>20010097</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" ht="18" spans="1:9">
+      <c r="A19" s="1">
+        <v>18890029</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" ht="18" spans="1:9">
+      <c r="A20" s="1">
+        <v>18770035</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" ht="18" spans="1:9">
+      <c r="A21" s="1">
+        <v>21740001</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" ht="18" spans="1:3">
+      <c r="A22" s="1">
+        <v>20860018</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" ht="18" spans="1:3">
+      <c r="A23" s="1">
+        <v>18910279</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="18" spans="1:3">
+      <c r="A24" s="1">
+        <v>20950704</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" ht="18" spans="1:3">
+      <c r="A25" s="1">
+        <v>20931025</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="18" spans="1:3">
+      <c r="A26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="18" spans="1:3">
+      <c r="A27" s="1">
+        <v>18930503</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="18" spans="1:3">
+      <c r="A28" s="1">
+        <v>18990306</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="18" spans="1:3">
+      <c r="A29" s="1">
+        <v>19980121</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="18" spans="1:3">
+      <c r="A30" s="1">
+        <v>18750033</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="18" spans="1:3">
+      <c r="A31" s="1">
+        <v>19960071</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="18" spans="1:3">
+      <c r="A32" s="1">
+        <v>18880115</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:8">
-      <c r="A4" s="1">
-        <v>16982263</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="33" ht="18" spans="1:3">
+      <c r="A33" s="1">
+        <v>21820001</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="3">
-        <v>710520</v>
-      </c>
-      <c r="F4" s="3" t="s">
+    </row>
+    <row r="34" ht="18" spans="1:3">
+      <c r="A34" s="1">
+        <v>18780032</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" ht="18" spans="1:3">
+      <c r="A35" s="1">
+        <v>18930506</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" ht="18" spans="1:3">
+      <c r="A36" s="1">
+        <v>20931000</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" ht="18" spans="1:3">
+      <c r="A37" s="1">
+        <v>20980810</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" ht="18" spans="1:3">
+      <c r="A38" s="1">
+        <v>20890022</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" ht="18" spans="1:3">
+      <c r="A39" s="1">
+        <v>20920052</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" ht="18" spans="1:3">
+      <c r="A40" s="1">
+        <v>20920051</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" ht="18" spans="1:3">
+      <c r="A41" s="1">
+        <v>20951042</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" ht="18" spans="1:3">
+      <c r="A42" s="1">
+        <v>18860071</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:8">
-      <c r="A5" s="1">
-        <v>20850005</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="43" ht="18" spans="1:3">
+      <c r="A43" s="1">
+        <v>18770036</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="18" spans="1:3">
+      <c r="A44" s="1">
+        <v>20931219</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" ht="18" spans="1:3">
+      <c r="A45" s="1">
+        <v>19760018</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" ht="18" spans="1:3">
+      <c r="A46" s="1">
+        <v>19940121</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" ht="18" spans="1:3">
+      <c r="A47" s="1">
+        <v>18870087</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3">
-        <v>710520</v>
-      </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="48" ht="18" spans="1:3">
+      <c r="A48" s="1">
+        <v>20920717</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" ht="18" spans="1:3">
+      <c r="A49" s="1">
+        <v>20880015</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" ht="18" spans="1:3">
+      <c r="A50" s="1">
+        <v>20970166</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" ht="18" spans="1:3">
+      <c r="A51" s="1">
+        <v>18820068</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:8">
-      <c r="A6" s="2">
-        <v>16860831</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="52" ht="18" spans="1:3">
+      <c r="A52" s="1">
+        <v>19970150</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" ht="18" spans="1:3">
+      <c r="A53" s="1">
+        <v>20860020</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" ht="18" spans="1:3">
+      <c r="A54" s="1">
+        <v>20880015</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" ht="18" spans="1:3">
+      <c r="A55" s="1">
+        <v>18910060</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="18" spans="1:3">
+      <c r="A56" s="1">
+        <v>19900102</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" ht="18" spans="1:3">
+      <c r="A57" s="1">
+        <v>19960265</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" ht="18" spans="1:3">
+      <c r="A58" s="1">
+        <v>18960705</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="18" spans="1:3">
+      <c r="A59" s="1">
+        <v>18850091</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="60" ht="18" spans="1:3">
+      <c r="A60" s="1">
+        <v>20940700</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="18" spans="1:3">
+      <c r="A61" s="1">
+        <v>18950723</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="18" spans="1:3">
+      <c r="A62" s="1">
+        <v>20950905</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" ht="18" spans="1:3">
+      <c r="A63" s="1">
+        <v>18870088</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" ht="18" spans="1:3">
+      <c r="A64" s="1">
+        <v>18960707</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="18" spans="1:3">
+      <c r="A65" s="1">
+        <v>18700018</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3">
-        <v>710520</v>
-      </c>
-      <c r="F6" s="3" t="s">
+    </row>
+    <row r="66" ht="18" spans="1:3">
+      <c r="A66" s="1">
+        <v>19950118</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" ht="18" spans="1:3">
+      <c r="A67" s="12">
+        <v>16984631</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="18" spans="1:3">
+      <c r="A68" s="13">
+        <v>16890757</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="18" spans="1:3">
+      <c r="A69" s="13">
+        <v>16890757</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="18" spans="1:3">
+      <c r="A70" s="1">
+        <v>18930509</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" ht="18" spans="1:3">
+      <c r="A71" s="1">
+        <v>18860056</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="2" t="s">
+    </row>
+    <row r="72" ht="18" spans="1:3">
+      <c r="A72" s="1">
+        <v>20970209</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" ht="18" spans="1:3">
+      <c r="A73" s="1">
+        <v>20970934</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="18" spans="1:3">
+      <c r="A74" s="1">
+        <v>20900392</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="18" spans="1:3">
+      <c r="A75" s="1">
+        <v>20971319</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="18" spans="1:3">
+      <c r="A76" s="1">
+        <v>19960123</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" ht="18" spans="1:3">
+      <c r="A77" s="1">
+        <v>18760039</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="18" spans="1:3">
+      <c r="A78" s="1">
+        <v>20960799</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" ht="18" spans="1:3">
+      <c r="A79" s="1">
+        <v>20910038</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:8">
-      <c r="A7" s="1">
-        <v>16900429</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C79" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" ht="18" spans="1:3">
+      <c r="A80" s="1">
+        <v>18900211</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" ht="18" spans="1:3">
+      <c r="A81" s="1">
+        <v>18990155</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" ht="18" spans="1:3">
+      <c r="A82" s="1">
+        <v>20900268</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" ht="18" spans="1:3">
+      <c r="A83" s="1">
+        <v>18760035</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" ht="18" spans="1:3">
+      <c r="A84" s="1">
+        <v>20950904</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" ht="18" spans="1:3">
+      <c r="A85" s="1">
+        <v>18970259</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" ht="18" spans="1:3">
+      <c r="A86" s="15">
+        <v>20010097</v>
+      </c>
+      <c r="B86" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C86" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="18" spans="1:3">
+      <c r="A87" s="1">
+        <v>18890029</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" ht="18" spans="1:3">
+      <c r="A88" s="1">
+        <v>18770035</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" ht="18" spans="1:3">
+      <c r="A89" s="1">
+        <v>21740001</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="90" ht="18" spans="1:3">
+      <c r="A90" s="1">
+        <v>20860018</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" ht="18" spans="1:3">
+      <c r="A91" s="1">
+        <v>18910279</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" ht="18" spans="1:3">
+      <c r="A92" s="1">
+        <v>20950704</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" ht="18" spans="1:3">
+      <c r="A93" s="1">
+        <v>20931025</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" ht="18" spans="1:3">
+      <c r="A94" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" ht="18" spans="1:3">
+      <c r="A95" s="1">
+        <v>18930503</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" ht="18" spans="1:3">
+      <c r="A96" s="1">
+        <v>18990306</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3">
-        <v>710520</v>
-      </c>
-      <c r="F7" s="3" t="s">
+    </row>
+    <row r="97" ht="18" spans="1:3">
+      <c r="A97" s="1">
+        <v>19980121</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" ht="18" spans="1:3">
+      <c r="A98" s="1">
+        <v>18750033</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="18" spans="1:3">
+      <c r="A99" s="1">
+        <v>19960071</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="18" spans="1:3">
+      <c r="A100" s="1">
+        <v>18880115</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="C100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:8">
-      <c r="A8" s="1">
-        <v>16963781</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="101" ht="18" spans="1:3">
+      <c r="A101" s="1">
+        <v>21820001</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" ht="18" spans="1:3">
+      <c r="A102" s="1">
+        <v>18780032</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" ht="18" spans="1:3">
+      <c r="A103" s="1">
+        <v>18930506</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" ht="18" spans="1:3">
+      <c r="A104" s="1">
+        <v>20931000</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" ht="18" spans="1:3">
+      <c r="A105" s="1">
+        <v>20980810</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" ht="18" spans="1:3">
+      <c r="A106" s="1">
+        <v>20890022</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" ht="18" spans="1:3">
+      <c r="A107" s="1">
+        <v>20920052</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" ht="18" spans="1:3">
+      <c r="A108" s="1">
+        <v>20920051</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" ht="18" spans="1:3">
+      <c r="A109" s="1">
+        <v>20951042</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" ht="18" spans="1:3">
+      <c r="A110" s="1">
+        <v>18860071</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="18" spans="1:3">
+      <c r="A111" s="1">
+        <v>18770036</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="18" spans="1:3">
+      <c r="A112" s="1">
+        <v>20931219</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" ht="18" spans="1:3">
+      <c r="A113" s="1">
+        <v>19760018</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" ht="18" spans="1:3">
+      <c r="A114" s="1">
+        <v>19940121</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" ht="18" spans="1:3">
+      <c r="A115" s="1">
+        <v>18870087</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" ht="18" spans="1:3">
+      <c r="A116" s="1">
+        <v>20920717</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" ht="18" spans="1:3">
+      <c r="A117" s="1">
+        <v>20880015</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" ht="18" spans="1:3">
+      <c r="A118" s="1">
+        <v>20970166</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" ht="18" spans="1:3">
+      <c r="A119" s="1">
+        <v>18820068</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="18" spans="1:3">
+      <c r="A120" s="1">
+        <v>19970150</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" ht="18" spans="1:3">
+      <c r="A121" s="1">
+        <v>20860020</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" ht="18" spans="1:3">
+      <c r="A122" s="1">
+        <v>20880015</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" ht="18" spans="1:3">
+      <c r="A123" s="1">
+        <v>18910060</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="18" spans="1:3">
+      <c r="A124" s="1">
+        <v>19900102</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" ht="18" spans="1:3">
+      <c r="A125" s="1">
+        <v>19960265</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" ht="18" spans="1:3">
+      <c r="A126" s="1">
+        <v>18960705</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="18" spans="1:3">
+      <c r="A127" s="1">
+        <v>18850091</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C127" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="18" spans="1:3">
+      <c r="A128" s="1">
+        <v>20940700</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="18" spans="1:3">
+      <c r="A129" s="1">
+        <v>18950723</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="18" spans="1:3">
+      <c r="A130" s="1">
+        <v>20950905</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" ht="18" spans="1:3">
+      <c r="A131" s="1">
+        <v>18870088</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" ht="18" spans="1:3">
+      <c r="A132" s="1">
+        <v>18960707</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="18" spans="1:3">
+      <c r="A133" s="1">
+        <v>18700018</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
-        <v>710520</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:8">
-      <c r="A9" s="1">
-        <v>16022759</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="134" ht="18" spans="1:3">
+      <c r="A134" s="1">
+        <v>19950118</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" ht="18" spans="1:3">
+      <c r="A135" s="1">
+        <v>16922185</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:8">
-      <c r="A10" s="2">
-        <v>16850767</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:8">
-      <c r="A11" s="1">
-        <v>19900179</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" ht="15.6" spans="1:8">
-      <c r="A12" s="1">
-        <v>20810026</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:8">
-      <c r="A13" s="1">
-        <v>18960584</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" ht="15.6" spans="1:8">
-      <c r="A14" s="2">
-        <v>16013451</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" ht="15.6" spans="1:8">
-      <c r="A15" s="2">
-        <v>16994927</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="15.6" spans="1:8">
-      <c r="A16" s="1">
-        <v>20941062</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" ht="15.6" spans="1:8">
-      <c r="A17" s="1">
-        <v>20870087</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" ht="15.6" spans="1:8">
-      <c r="A18" s="1">
-        <v>20910608</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:8">
-      <c r="A19" s="1">
-        <v>20971472</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" ht="15.6" spans="1:8">
-      <c r="A20" s="1">
-        <v>19800007</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" ht="15.6" spans="1:8">
-      <c r="A21" s="1">
-        <v>19950108</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4">
-        <v>845927</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>13</v>
+      <c r="C135" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="18" spans="1:3">
+      <c r="A136" s="12">
+        <v>16984631</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
